--- a/data/POC_output.xlsx
+++ b/data/POC_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hsiao-jushih/Desktop/Agor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE979E1-E9A5-C540-83B6-936D4F901C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB7B76C-3A11-C344-AA71-72A84128C711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{72515BCA-1877-6C41-9F26-9B8DE01DF02B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{72515BCA-1877-6C41-9F26-9B8DE01DF02B}"/>
   </bookViews>
   <sheets>
     <sheet name="3Q24" sheetId="1" r:id="rId1"/>
@@ -280,16 +280,16 @@
     <t>Live Products (#)</t>
   </si>
   <si>
-    <t>US$ -0.26M</t>
-  </si>
-  <si>
     <t>US$ 8.19M</t>
   </si>
   <si>
-    <t>US$ -0.22M</t>
-  </si>
-  <si>
     <t>US$ 6,65M / US$ 0.30M</t>
+  </si>
+  <si>
+    <t>US$ -1.20M</t>
+  </si>
+  <si>
+    <t>US$ -1.09M</t>
   </si>
 </sst>
 </file>
@@ -532,6 +532,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -549,9 +552,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3072,7 +3072,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3CCF3F-12D8-DF4B-A589-CE91E0AF5BE3}">
   <dimension ref="B6:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3126,16 +3128,16 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="23" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" spans="2:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="18"/>
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
@@ -3144,10 +3146,10 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="20"/>
       <c r="E14" s="2">
         <v>8</v>
       </c>
@@ -3176,15 +3178,15 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="21"/>
       <c r="E19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -3193,10 +3195,10 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C30" s="5" t="s">
@@ -3220,7 +3222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E6C994-1A0C-714A-B0CA-D926F3626845}">
   <dimension ref="B6:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3274,16 +3276,16 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="23" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" spans="2:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="18"/>
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
@@ -3292,10 +3294,10 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="20"/>
       <c r="E14" s="2">
         <v>8</v>
       </c>
@@ -3324,15 +3326,15 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="21"/>
       <c r="E19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="22" t="s">
         <v>40</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
